--- a/config_6.22/fish_2d_fish_server.xlsx
+++ b/config_6.22/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
     <t>2,0,0.01,</t>
   </si>
   <si>
-    <t>0,0,1.66,</t>
+    <t>0,0,0.15,</t>
   </si>
   <si>
     <t>survive_time</t>
@@ -1443,7 +1443,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,6 +1464,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1472,14 +1488,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,82 +1579,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1588,7 +1601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1596,31 +1608,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1630,8 +1618,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,6 +1657,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1676,31 +1789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,127 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,11 +1871,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1908,37 +1940,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,177 +1960,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2555,7 +2542,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView topLeftCell="A215" workbookViewId="0">
       <selection activeCell="G245" sqref="G245"/>
     </sheetView>
   </sheetViews>
@@ -9283,7 +9270,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O200" sqref="O200"/>
+      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18850,8 +18837,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>

--- a/config_6.22/fish_2d_fish_server.xlsx
+++ b/config_6.22/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1440,8 +1440,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1464,9 +1464,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,15 +1546,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,105 +1602,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,12 +1613,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1657,7 +1657,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,25 +1699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1723,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,31 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,85 +1819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,6 +1872,63 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1882,15 +1939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,21 +1958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1935,49 +1968,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1986,133 +1986,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
@@ -2542,7 +2542,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
       <selection activeCell="G245" sqref="G245"/>
     </sheetView>
   </sheetViews>
@@ -9270,7 +9270,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
+      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18724,7 +18724,7 @@
         <v>61</v>
       </c>
       <c r="C200" s="12">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D200" s="23" t="s">
         <v>249</v>
@@ -18837,8 +18837,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>

--- a/config_6.22/fish_2d_fish_server.xlsx
+++ b/config_6.22/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1438,9 +1438,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1464,9 +1464,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,6 +1497,89 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1496,75 +1600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1577,48 +1613,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1657,13 +1657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,13 +1669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,19 +1687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,13 +1723,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,13 +1807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,79 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,29 +1886,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,17 +1927,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1960,11 +1962,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1974,10 +1974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1986,19 +1986,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2007,115 +2007,115 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2542,8 +2542,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="G245" sqref="G245"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I226" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="J226" s="29">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -9267,10 +9267,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18721,7 +18721,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C200" s="12">
         <v>56</v>
@@ -18732,19 +18732,20 @@
       <c r="E200" s="10">
         <v>350</v>
       </c>
-      <c r="F200" s="12">
-        <f>1/E199</f>
-        <v>0.00222222222222222</v>
+      <c r="F200" s="30">
+        <f>1/E200</f>
+        <v>0.00285714285714286</v>
       </c>
       <c r="G200" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="H200" s="30" t="e">
+      <c r="H200" s="30" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B200,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C200,activity!A:A,0)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I200" s="10">
-        <v>300</v>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I200" s="17">
+        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C200,activity!A:A,0)),0)</f>
+        <v>50</v>
       </c>
       <c r="J200" s="10">
         <v>1</v>
@@ -18838,7 +18839,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -20431,7 +20432,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" outlineLevelCol="6"/>
